--- a/docs/template-basic2.xlsx
+++ b/docs/template-basic2.xlsx
@@ -331,7 +331,7 @@
     <t>Simple_Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://www.fhir.org/guides/ig-sampler/StructureDefinition/template-blah}
+    <t xml:space="preserve">Extension {http://www.fhir.org/guides/sampler2/StructureDefinition/template-blah}
 </t>
   </si>
   <si>
@@ -344,7 +344,7 @@
     <t>Complex_Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://www.fhir.org/guides/ig-sampler/StructureDefinition/template-complex}
+    <t xml:space="preserve">Extension {http://www.fhir.org/guides/sampler2/StructureDefinition/template-complex}
 </t>
   </si>
   <si>
@@ -616,7 +616,7 @@
     <t>Basic.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://www.fhir.org/guides/ig-sampler/StructureDefinition/ifr} {http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient}
+    <t xml:space="preserve">Reference {http://www.fhir.org/guides/sampler2/StructureDefinition/ifr} {http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient}
 </t>
   </si>
   <si>
